--- a/Data_driven_test/Test_Case.xlsx
+++ b/Data_driven_test/Test_Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi\Desktop\Amazon_project_08\SI-GuidedProject-706686-1706189869\Data_driven_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323ABF43-6B1B-42CC-97F3-2BCEB402EC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216CCECD-69B6-425A-BDCE-B30669D06AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" firstSheet="2" activeTab="3" xr2:uid="{3B3353DA-B22C-4B5D-89C8-575B83ACEBB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" firstSheet="2" activeTab="5" xr2:uid="{3B3353DA-B22C-4B5D-89C8-575B83ACEBB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
@@ -337,9 +337,6 @@
     <t>Laptops</t>
   </si>
   <si>
-    <t xml:space="preserve">add to whillist of the selected item </t>
-  </si>
-  <si>
     <t>Speaker</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>keylogertest7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add to Cart of the selected item </t>
   </si>
 </sst>
 </file>
@@ -821,39 +821,45 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,12 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1274,7 +1274,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1342,19 +1342,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="43" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="22" t="s">
@@ -1366,25 +1366,25 @@
       <c r="H2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="40" t="s">
         <v>79</v>
       </c>
       <c r="G3" s="24" t="s">
@@ -1393,107 +1393,107 @@
       <c r="H3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="33"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="33"/>
+        <v>100</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="33"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="38" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="26" t="s">
@@ -1511,19 +1511,19 @@
       <c r="J9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="40" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="24" t="s">
@@ -1538,60 +1538,60 @@
       <c r="J10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="36"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -1603,25 +1603,25 @@
       <c r="H13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="37" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -1630,62 +1630,62 @@
       <c r="H14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="36"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="39"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="36"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>103</v>
+      <c r="C17" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="27" t="s">
@@ -1703,26 +1703,26 @@
       <c r="J17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="41" t="s">
-        <v>104</v>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="G18" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -1730,22 +1730,22 @@
       <c r="J18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>22</v>
@@ -1753,17 +1753,17 @@
       <c r="J19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="36"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="25" t="s">
         <v>64</v>
       </c>
@@ -1776,115 +1776,115 @@
       <c r="J20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="36"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="36" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="39" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="42"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="42"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="42"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="42"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -2195,20 +2195,24 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:E12"/>
     <mergeCell ref="K17:K20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="C17:C20"/>
@@ -2223,24 +2227,20 @@
     <mergeCell ref="K13:K16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2277,8 +2277,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>109</v>
+      <c r="A1" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>75</v>
@@ -2292,24 +2292,24 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>111</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>78</v>
@@ -2331,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B0442-FDEA-4739-8D95-C7AE0EC1AEE7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2349,16 +2349,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
-        <v>112</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>78</v>
@@ -2399,7 +2399,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="15" t="s">
         <v>84</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="15" t="s">
         <v>93</v>
       </c>
@@ -2439,7 +2439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC77B8E-C9B1-4EA2-BC15-BFA68B632416}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2460,41 +2462,41 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="C5" s="31" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2531,72 +2533,72 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="52" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="53"/>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="52" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="59" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="60"/>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
